--- a/static/excel-ejemplos/inventarioPrew.xlsx
+++ b/static/excel-ejemplos/inventarioPrew.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Proyectos React\Versiones-Inventario\almace-candelaria\back\static\excel-ejemplos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E4294-0A59-40D1-A106-94D29269B2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA25C5B-BD5F-445B-A830-CAEF21F05E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{542168D8-B490-4FCE-8C46-80F1BDF8647C}"/>
+    <workbookView xWindow="16590" yWindow="3170" windowWidth="17100" windowHeight="15120" xr2:uid="{542168D8-B490-4FCE-8C46-80F1BDF8647C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>Producto</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Fecha Expiracion</t>
+  </si>
+  <si>
+    <t>Precio Compra</t>
+  </si>
+  <si>
+    <t>Precio Min Venta</t>
   </si>
 </sst>
 </file>
@@ -469,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EEE4BD-8C2F-4CDB-BB0E-F033FFAC1269}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,12 +486,14 @@
     <col min="1" max="1" width="27.54296875" customWidth="1"/>
     <col min="2" max="2" width="17.08984375" customWidth="1"/>
     <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.36328125" customWidth="1"/>
-    <col min="9" max="9" width="16.26953125" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,16 +513,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -533,17 +547,23 @@
       <c r="F2">
         <v>140</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="G2">
+        <v>140</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
         <v>46001</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -562,17 +582,23 @@
       <c r="F3">
         <v>300</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="G3">
+        <v>300</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
         <v>46002</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -591,17 +617,23 @@
       <c r="F4">
         <v>240</v>
       </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="G4">
+        <v>240</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
         <v>46003</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -620,17 +652,23 @@
       <c r="F5">
         <v>130</v>
       </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="G5">
+        <v>130</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <v>46004</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -649,17 +687,23 @@
       <c r="F6">
         <v>260</v>
       </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="G6">
+        <v>260</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
         <v>46005</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -678,17 +722,23 @@
       <c r="F7">
         <v>270</v>
       </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="G7">
+        <v>270</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
         <v>46006</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -707,17 +757,23 @@
       <c r="F8">
         <v>290</v>
       </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="G8">
+        <v>290</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>46007</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -736,17 +792,23 @@
       <c r="F9">
         <v>290</v>
       </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="G9">
+        <v>290</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>46008</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -765,17 +827,23 @@
       <c r="F10">
         <v>230</v>
       </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="G10">
+        <v>230</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>46009</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -794,17 +862,23 @@
       <c r="F11">
         <v>260</v>
       </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="G11">
+        <v>260</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
         <v>46010</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -823,14 +897,20 @@
       <c r="F12">
         <v>260</v>
       </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="G12">
+        <v>260</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>46011</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
